--- a/src/main/resources/data/虚拟被试数据.xlsx
+++ b/src/main/resources/data/虚拟被试数据.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,14 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,352 +48,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -400,312 +71,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -963,21 +348,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1005,7 +390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>2</v>
@@ -1017,7 +402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>3</v>
@@ -1029,7 +414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>4</v>
@@ -1041,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>5</v>
@@ -1053,7 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -1067,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>2</v>
@@ -1079,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>3</v>
@@ -1091,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>4</v>
@@ -1103,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>5</v>
@@ -1115,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1129,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>2</v>
@@ -1141,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>3</v>
@@ -1153,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>4</v>
@@ -1165,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>5</v>
@@ -1177,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>9</v>
       </c>
@@ -1191,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>2</v>
@@ -1203,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
       <c r="B19">
         <v>3</v>
@@ -1215,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>4</v>
@@ -1227,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
       <c r="B21">
         <v>5</v>
@@ -1239,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1253,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="2"/>
       <c r="B23">
         <v>2</v>
@@ -1265,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>3</v>
@@ -1277,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="2"/>
       <c r="B25">
         <v>4</v>
@@ -1289,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
       <c r="B26">
         <v>5</v>
@@ -1301,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -1315,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="2"/>
       <c r="B28">
         <v>2</v>
@@ -1327,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29">
         <v>3</v>
@@ -1339,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="2"/>
       <c r="B30">
         <v>4</v>
@@ -1351,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2"/>
       <c r="B31">
         <v>5</v>
@@ -1363,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -1377,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="2"/>
       <c r="B33">
         <v>2</v>
@@ -1389,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
       <c r="B34">
         <v>3</v>
@@ -1401,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
       <c r="B35">
         <v>4</v>
@@ -1413,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="2"/>
       <c r="B36">
         <v>5</v>
@@ -1425,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>12</v>
       </c>
@@ -1439,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="2"/>
       <c r="B38">
         <v>2</v>
@@ -1451,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="2"/>
       <c r="B39">
         <v>3</v>
@@ -1463,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="2"/>
       <c r="B40">
         <v>4</v>
@@ -1475,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="2"/>
       <c r="B41">
         <v>5</v>
@@ -1487,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -1495,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="2"/>
       <c r="B43">
         <v>2</v>
@@ -1513,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="2"/>
       <c r="B44">
         <v>3</v>
@@ -1525,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="2"/>
       <c r="B45">
         <v>4</v>
@@ -1537,19 +922,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="2"/>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>6</v>
       </c>
@@ -1563,31 +948,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="2"/>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="2"/>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="2"/>
       <c r="B50">
         <v>4</v>
@@ -1599,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="2"/>
       <c r="B51">
         <v>5</v>
@@ -1611,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -1625,7 +1010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="2"/>
       <c r="B53">
         <v>2</v>
@@ -1637,7 +1022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="2"/>
       <c r="B54">
         <v>3</v>
@@ -1649,7 +1034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="2"/>
       <c r="B55">
         <v>4</v>
@@ -1661,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="2"/>
       <c r="B56">
         <v>5</v>
@@ -1673,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>8</v>
       </c>
@@ -1687,7 +1072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="2"/>
       <c r="B58">
         <v>2</v>
@@ -1699,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="2"/>
       <c r="B59">
         <v>3</v>
@@ -1711,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="2"/>
       <c r="B60">
         <v>4</v>
@@ -1723,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="2"/>
       <c r="B61">
         <v>5</v>
@@ -1735,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>13</v>
       </c>
@@ -1749,7 +1134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="2"/>
       <c r="B63">
         <v>2</v>
@@ -1761,7 +1146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="2"/>
       <c r="B64">
         <v>3</v>
@@ -1773,7 +1158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" s="2"/>
       <c r="B65">
         <v>4</v>
@@ -1785,7 +1170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="2"/>
       <c r="B66">
         <v>5</v>
@@ -1797,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" s="2">
         <v>14</v>
       </c>
@@ -1811,7 +1196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" s="2"/>
       <c r="B68">
         <v>2</v>
@@ -1823,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" s="2"/>
       <c r="B69">
         <v>3</v>
@@ -1835,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" s="2"/>
       <c r="B70">
         <v>4</v>
@@ -1847,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>5</v>
@@ -1859,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" s="2">
         <v>15</v>
       </c>
@@ -1873,7 +1258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
       <c r="B73">
         <v>2</v>
@@ -1885,7 +1270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
       <c r="B74">
         <v>3</v>
@@ -1897,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
       <c r="B75">
         <v>4</v>
@@ -1909,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
       <c r="B76">
         <v>5</v>
@@ -1921,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1935,7 +1320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
       <c r="B78">
         <v>2</v>
@@ -1947,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A79" s="2"/>
       <c r="B79">
         <v>3</v>
@@ -1959,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="2"/>
       <c r="B80">
         <v>4</v>
@@ -1971,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A81" s="2"/>
       <c r="B81">
         <v>5</v>
@@ -1985,25 +1370,25 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>